--- a/test_resources/EIF-TestCases.xlsx
+++ b/test_resources/EIF-TestCases.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslan/projects/Developer/Ignite/IgniteEIF/test_resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslan/projects/Developer/Ignite/IgniteCuke/test_resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F91A0C-6531-B14E-ADC6-8C262621C80D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591EDAC-F939-6D4D-8B52-66A1322FA155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="26920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48820" yWindow="-10420" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="4" r:id="rId1"/>
-    <sheet name="EIF TestCases" sheetId="1" r:id="rId2"/>
+    <sheet name="users" sheetId="5" r:id="rId2"/>
+    <sheet name="EIF TestCases" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -185,12 +186,219 @@
     <t xml:space="preserve">
 * Parent information and and Student information must be displayed and valid</t>
   </si>
+  <si>
+    <t>application1</t>
+  </si>
+  <si>
+    <t>application2</t>
+  </si>
+  <si>
+    <t>application3</t>
+  </si>
+  <si>
+    <t>application4</t>
+  </si>
+  <si>
+    <t>application5</t>
+  </si>
+  <si>
+    <t>application6</t>
+  </si>
+  <si>
+    <t>hdyhau</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>homeNumber</t>
+  </si>
+  <si>
+    <t>studentLastName</t>
+  </si>
+  <si>
+    <t>parentFirstName</t>
+  </si>
+  <si>
+    <t>parentLastName</t>
+  </si>
+  <si>
+    <t>studentFirstName</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>isCurrentAcademicYear</t>
+  </si>
+  <si>
+    <t>gradeLevel</t>
+  </si>
+  <si>
+    <t>parentRelation</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Berk</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>aa@aa.com</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Vanaheim</t>
+  </si>
+  <si>
+    <t>Berserker</t>
+  </si>
+  <si>
+    <t>New Berk</t>
+  </si>
+  <si>
+    <t>Huttsgalor</t>
+  </si>
+  <si>
+    <t>Hiccup</t>
+  </si>
+  <si>
+    <t>Astrid</t>
+  </si>
+  <si>
+    <t>Hofferson</t>
+  </si>
+  <si>
+    <t>Snotlout</t>
+  </si>
+  <si>
+    <t>RuffNut</t>
+  </si>
+  <si>
+    <t>TuffNut</t>
+  </si>
+  <si>
+    <t>Fishleg</t>
+  </si>
+  <si>
+    <t>Ingerman</t>
+  </si>
+  <si>
+    <t>Thornuson</t>
+  </si>
+  <si>
+    <t>Jorgenson</t>
+  </si>
+  <si>
+    <t>Spitelout</t>
+  </si>
+  <si>
+    <t>Haddock</t>
+  </si>
+  <si>
+    <t>Stoick</t>
+  </si>
+  <si>
+    <t>Valka</t>
+  </si>
+  <si>
+    <t>Gobber</t>
+  </si>
+  <si>
+    <t>Belch</t>
+  </si>
+  <si>
+    <t>Dagor</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>05/10/2010</t>
+  </si>
+  <si>
+    <t>12/20/2007</t>
+  </si>
+  <si>
+    <t>07/05/2008</t>
+  </si>
+  <si>
+    <t>09/01/2009</t>
+  </si>
+  <si>
+    <t>3/30/2011</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>(949) 111 2233</t>
+  </si>
+  <si>
+    <t>(949) 111 2244</t>
+  </si>
+  <si>
+    <t>(949) 111 2255</t>
+  </si>
+  <si>
+    <t>(949) 111 2266</t>
+  </si>
+  <si>
+    <t>(949) 111 2277</t>
+  </si>
+  <si>
+    <t>(949) 111 2288</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -199,23 +407,27 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -248,13 +460,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +504,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -381,11 +624,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -450,6 +708,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -498,6 +771,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28DAD8E-E820-C04E-A72A-5DA2C173776F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
+    <sheetView zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
@@ -835,7 +1111,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -843,37 +1119,37 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
+      <c r="A3" s="35"/>
       <c r="C3" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="92" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="35"/>
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="35"/>
       <c r="C5" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="35"/>
       <c r="C6" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="35"/>
       <c r="C7" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
+      <c r="A8" s="35"/>
       <c r="C8" s="27" t="s">
         <v>37</v>
       </c>
@@ -887,6 +1163,430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21D9D2A-B688-9349-BC23-5005D4071EE2}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="7" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="52">
+        <v>75048</v>
+      </c>
+      <c r="C8" s="52">
+        <v>75044</v>
+      </c>
+      <c r="D8" s="52">
+        <v>75081</v>
+      </c>
+      <c r="E8" s="52">
+        <v>75051</v>
+      </c>
+      <c r="F8" s="52">
+        <v>75040</v>
+      </c>
+      <c r="G8" s="52">
+        <v>75060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B17 C17:G17" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -943,17 +1643,17 @@
       <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="22"/>
@@ -965,13 +1665,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="22"/>
       <c r="D3" s="26" t="s">
         <v>11</v>
@@ -981,13 +1681,13 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="23"/>
       <c r="D4" s="25" t="s">
         <v>12</v>
@@ -997,13 +1697,13 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="23"/>
       <c r="D5" s="26" t="s">
         <v>13</v>
@@ -1013,13 +1713,13 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="23"/>
       <c r="D6" s="25" t="s">
         <v>14</v>
@@ -1029,13 +1729,13 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="23"/>
       <c r="D7" s="26" t="s">
         <v>15</v>
@@ -1045,13 +1745,13 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="22"/>
       <c r="D8" s="25" t="s">
         <v>16</v>
@@ -1061,13 +1761,13 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="23"/>
       <c r="D9" s="26" t="s">
         <v>17</v>
@@ -1077,13 +1777,13 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="22"/>
       <c r="D10" s="25" t="s">
         <v>18</v>
@@ -1093,13 +1793,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="22"/>
       <c r="D11" s="26" t="s">
         <v>19</v>
@@ -1109,13 +1809,13 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="22"/>
       <c r="D12" s="25" t="s">
         <v>20</v>
@@ -1125,13 +1825,13 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="22"/>
       <c r="D13" s="26" t="s">
         <v>21</v>
@@ -1141,9 +1841,9 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
@@ -1160,10 +1860,10 @@
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25"/>
       <c r="E15" s="2"/>
@@ -1171,13 +1871,13 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="22"/>
       <c r="D16" s="26"/>
       <c r="E16" s="13"/>
@@ -1185,13 +1885,13 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="23"/>
       <c r="D17" s="25"/>
       <c r="E17" s="2"/>
@@ -1199,13 +1899,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="23"/>
       <c r="D18" s="26"/>
       <c r="E18" s="13"/>
@@ -1213,13 +1913,13 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="23"/>
       <c r="D19" s="25"/>
       <c r="E19" s="2"/>
@@ -1227,13 +1927,13 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="23"/>
       <c r="D20" s="26"/>
       <c r="E20" s="13"/>
@@ -1241,13 +1941,13 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="22"/>
       <c r="D21" s="25"/>
       <c r="E21" s="2"/>
@@ -1255,13 +1955,13 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="23"/>
       <c r="D22" s="26"/>
       <c r="E22" s="13"/>
@@ -1269,13 +1969,13 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="22"/>
       <c r="D23" s="25"/>
       <c r="E23" s="2"/>
@@ -1283,13 +1983,13 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="22"/>
       <c r="D24" s="26"/>
       <c r="E24" s="13"/>
@@ -1297,13 +1997,13 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="22"/>
       <c r="D25" s="25"/>
       <c r="E25" s="2"/>
@@ -1311,13 +2011,13 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="22"/>
       <c r="D26" s="26"/>
       <c r="E26" s="13"/>
@@ -1325,9 +2025,9 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="41"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="24"/>
@@ -1344,10 +2044,10 @@
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="22"/>
       <c r="D28" s="15"/>
       <c r="E28" s="2"/>
@@ -1355,13 +2055,13 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="22"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
@@ -1369,13 +2069,13 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="23"/>
       <c r="D30" s="15"/>
       <c r="E30" s="2"/>
@@ -1383,13 +2083,13 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="23"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
@@ -1397,13 +2097,13 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="30"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="23"/>
       <c r="D32" s="15"/>
       <c r="E32" s="2"/>
@@ -1411,13 +2111,13 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="23"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
@@ -1425,13 +2125,13 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="22"/>
       <c r="D34" s="15"/>
       <c r="E34" s="2"/>
@@ -1439,13 +2139,13 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="23"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
@@ -1453,13 +2153,13 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="30"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="22"/>
       <c r="D36" s="15"/>
       <c r="E36" s="2"/>
@@ -1467,13 +2167,13 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="30"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="22"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
@@ -1481,13 +2181,13 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="30"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="22"/>
       <c r="D38" s="15"/>
       <c r="E38" s="2"/>
@@ -1495,13 +2195,13 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="22"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13"/>
@@ -1509,9 +2209,9 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="48"/>
     </row>
     <row r="40" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="24"/>
@@ -1528,10 +2228,10 @@
       <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="44"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="22"/>
       <c r="D41" s="15"/>
       <c r="E41" s="2"/>
@@ -1539,13 +2239,13 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="35"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="22"/>
       <c r="D42" s="12"/>
       <c r="E42" s="13"/>
@@ -1553,13 +2253,13 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="30"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="23"/>
       <c r="D43" s="15"/>
       <c r="E43" s="2"/>
@@ -1567,13 +2267,13 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="38"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="30"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="23"/>
       <c r="D44" s="12"/>
       <c r="E44" s="13"/>
@@ -1581,13 +2281,13 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="30"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="23"/>
       <c r="D45" s="15"/>
       <c r="E45" s="2"/>
@@ -1595,13 +2295,13 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="38"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="30"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="23"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
@@ -1609,13 +2309,13 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="38"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="30"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="22"/>
       <c r="D47" s="15"/>
       <c r="E47" s="2"/>
@@ -1623,13 +2323,13 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="38"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="23"/>
       <c r="D48" s="12"/>
       <c r="E48" s="13"/>
@@ -1637,13 +2337,13 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="30"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="22"/>
       <c r="D49" s="15"/>
       <c r="E49" s="2"/>
@@ -1651,13 +2351,13 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="38"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="30"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="22"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13"/>
@@ -1665,13 +2365,13 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="38"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="30"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="22"/>
       <c r="D51" s="15"/>
       <c r="E51" s="2"/>
@@ -1679,13 +2379,13 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="38"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="30"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="22"/>
       <c r="D52" s="12"/>
       <c r="E52" s="13"/>
@@ -1693,9 +2393,9 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="41"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="48"/>
     </row>
     <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="24"/>
@@ -1712,10 +2412,10 @@
       <c r="L53" s="24"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="44"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="22"/>
       <c r="D54" s="15"/>
       <c r="E54" s="2"/>
@@ -1723,13 +2423,13 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="22"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13"/>
@@ -1737,13 +2437,13 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="38"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="30"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="23"/>
       <c r="D56" s="15"/>
       <c r="E56" s="2"/>
@@ -1751,13 +2451,13 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="38"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="30"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="23"/>
       <c r="D57" s="12"/>
       <c r="E57" s="13"/>
@@ -1765,13 +2465,13 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="38"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="30"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="23"/>
       <c r="D58" s="15"/>
       <c r="E58" s="2"/>
@@ -1779,13 +2479,13 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="38"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30"/>
-      <c r="B59" s="32"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="23"/>
       <c r="D59" s="12"/>
       <c r="E59" s="13"/>
@@ -1793,13 +2493,13 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="38"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="30"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="22"/>
       <c r="D60" s="15"/>
       <c r="E60" s="2"/>
@@ -1807,13 +2507,13 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="38"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="30"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="23"/>
       <c r="D61" s="12"/>
       <c r="E61" s="13"/>
@@ -1821,13 +2521,13 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="38"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="45"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="30"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="22"/>
       <c r="D62" s="15"/>
       <c r="E62" s="2"/>
@@ -1835,13 +2535,13 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="38"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="30"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="22"/>
       <c r="D63" s="12"/>
       <c r="E63" s="13"/>
@@ -1849,13 +2549,13 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="38"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="30"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="22"/>
       <c r="D64" s="15"/>
       <c r="E64" s="2"/>
@@ -1863,13 +2563,13 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="38"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="45"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="30"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="22"/>
       <c r="D65" s="12"/>
       <c r="E65" s="13"/>
@@ -1877,9 +2577,9 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="41"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="48"/>
     </row>
     <row r="66" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="24"/>

--- a/test_resources/EIF-TestCases.xlsx
+++ b/test_resources/EIF-TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslan/projects/Developer/Ignite/IgniteCuke/test_resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591EDAC-F939-6D4D-8B52-66A1322FA155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCC3E67-A9D0-794C-A359-E2D61A877C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48820" yWindow="-10420" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-71140" yWindow="-10840" windowWidth="34000" windowHeight="24020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="4" r:id="rId1"/>
@@ -723,6 +723,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -771,9 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -1119,37 +1119,37 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="C3" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="92" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="C5" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="C6" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="C7" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="C8" s="27" t="s">
         <v>37</v>
       </c>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21D9D2A-B688-9349-BC23-5005D4071EE2}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1341,22 +1341,22 @@
       <c r="A8" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="35">
         <v>75048</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="35">
         <v>75044</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="35">
         <v>75081</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="35">
         <v>75051</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="35">
         <v>75040</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="35">
         <v>75060</v>
       </c>
     </row>
@@ -1387,22 +1387,22 @@
       <c r="A10" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1643,17 +1643,17 @@
       <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="22"/>
@@ -1665,13 +1665,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="22"/>
       <c r="D3" s="26" t="s">
         <v>11</v>
@@ -1681,13 +1681,13 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="23"/>
       <c r="D4" s="25" t="s">
         <v>12</v>
@@ -1697,13 +1697,13 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="23"/>
       <c r="D5" s="26" t="s">
         <v>13</v>
@@ -1713,13 +1713,13 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="23"/>
       <c r="D6" s="25" t="s">
         <v>14</v>
@@ -1729,13 +1729,13 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="23"/>
       <c r="D7" s="26" t="s">
         <v>15</v>
@@ -1745,13 +1745,13 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="22"/>
       <c r="D8" s="25" t="s">
         <v>16</v>
@@ -1761,13 +1761,13 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="23"/>
       <c r="D9" s="26" t="s">
         <v>17</v>
@@ -1777,13 +1777,13 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="22"/>
       <c r="D10" s="25" t="s">
         <v>18</v>
@@ -1793,13 +1793,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="22"/>
       <c r="D11" s="26" t="s">
         <v>19</v>
@@ -1809,13 +1809,13 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="22"/>
       <c r="D12" s="25" t="s">
         <v>20</v>
@@ -1825,13 +1825,13 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="22"/>
       <c r="D13" s="26" t="s">
         <v>21</v>
@@ -1841,9 +1841,9 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
@@ -1860,10 +1860,10 @@
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25"/>
       <c r="E15" s="2"/>
@@ -1871,13 +1871,13 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="22"/>
       <c r="D16" s="26"/>
       <c r="E16" s="13"/>
@@ -1885,13 +1885,13 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="23"/>
       <c r="D17" s="25"/>
       <c r="E17" s="2"/>
@@ -1899,13 +1899,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="23"/>
       <c r="D18" s="26"/>
       <c r="E18" s="13"/>
@@ -1913,13 +1913,13 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="23"/>
       <c r="D19" s="25"/>
       <c r="E19" s="2"/>
@@ -1927,13 +1927,13 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="23"/>
       <c r="D20" s="26"/>
       <c r="E20" s="13"/>
@@ -1941,13 +1941,13 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="22"/>
       <c r="D21" s="25"/>
       <c r="E21" s="2"/>
@@ -1955,13 +1955,13 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="23"/>
       <c r="D22" s="26"/>
       <c r="E22" s="13"/>
@@ -1969,13 +1969,13 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="22"/>
       <c r="D23" s="25"/>
       <c r="E23" s="2"/>
@@ -1983,13 +1983,13 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="22"/>
       <c r="D24" s="26"/>
       <c r="E24" s="13"/>
@@ -1997,13 +1997,13 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="22"/>
       <c r="D25" s="25"/>
       <c r="E25" s="2"/>
@@ -2011,13 +2011,13 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="22"/>
       <c r="D26" s="26"/>
       <c r="E26" s="13"/>
@@ -2025,9 +2025,9 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="24"/>
@@ -2044,10 +2044,10 @@
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="22"/>
       <c r="D28" s="15"/>
       <c r="E28" s="2"/>
@@ -2055,13 +2055,13 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="22"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
@@ -2069,13 +2069,13 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="23"/>
       <c r="D30" s="15"/>
       <c r="E30" s="2"/>
@@ -2083,13 +2083,13 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="23"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
@@ -2097,13 +2097,13 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="45"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="23"/>
       <c r="D32" s="15"/>
       <c r="E32" s="2"/>
@@ -2111,13 +2111,13 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="23"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
@@ -2125,13 +2125,13 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="45"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="22"/>
       <c r="D34" s="15"/>
       <c r="E34" s="2"/>
@@ -2139,13 +2139,13 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="37"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="23"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
@@ -2153,13 +2153,13 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="45"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="46"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="22"/>
       <c r="D36" s="15"/>
       <c r="E36" s="2"/>
@@ -2167,13 +2167,13 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="37"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="22"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
@@ -2181,13 +2181,13 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="45"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="22"/>
       <c r="D38" s="15"/>
       <c r="E38" s="2"/>
@@ -2195,13 +2195,13 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="22"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13"/>
@@ -2209,9 +2209,9 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="48"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="49"/>
     </row>
     <row r="40" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="24"/>
@@ -2228,10 +2228,10 @@
       <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="51"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="22"/>
       <c r="D41" s="15"/>
       <c r="E41" s="2"/>
@@ -2239,13 +2239,13 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="37"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="22"/>
       <c r="D42" s="12"/>
       <c r="E42" s="13"/>
@@ -2253,13 +2253,13 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="23"/>
       <c r="D43" s="15"/>
       <c r="E43" s="2"/>
@@ -2267,13 +2267,13 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="45"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="46"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="23"/>
       <c r="D44" s="12"/>
       <c r="E44" s="13"/>
@@ -2281,13 +2281,13 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="45"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="46"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="37"/>
-      <c r="B45" s="39"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="23"/>
       <c r="D45" s="15"/>
       <c r="E45" s="2"/>
@@ -2295,13 +2295,13 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="45"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="46"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="37"/>
-      <c r="B46" s="39"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="23"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
@@ -2309,13 +2309,13 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="45"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="37"/>
-      <c r="B47" s="39"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="22"/>
       <c r="D47" s="15"/>
       <c r="E47" s="2"/>
@@ -2323,13 +2323,13 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="45"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="46"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="37"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="23"/>
       <c r="D48" s="12"/>
       <c r="E48" s="13"/>
@@ -2337,13 +2337,13 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="45"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="22"/>
       <c r="D49" s="15"/>
       <c r="E49" s="2"/>
@@ -2351,13 +2351,13 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="45"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="22"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13"/>
@@ -2365,13 +2365,13 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="45"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="37"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="22"/>
       <c r="D51" s="15"/>
       <c r="E51" s="2"/>
@@ -2379,13 +2379,13 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="45"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="46"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="22"/>
       <c r="D52" s="12"/>
       <c r="E52" s="13"/>
@@ -2393,9 +2393,9 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="48"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="49"/>
     </row>
     <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="24"/>
@@ -2412,10 +2412,10 @@
       <c r="L53" s="24"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="51"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="22"/>
       <c r="D54" s="15"/>
       <c r="E54" s="2"/>
@@ -2423,13 +2423,13 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="43"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="22"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13"/>
@@ -2437,13 +2437,13 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="45"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="46"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="37"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="23"/>
       <c r="D56" s="15"/>
       <c r="E56" s="2"/>
@@ -2451,13 +2451,13 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="45"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="46"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="37"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="23"/>
       <c r="D57" s="12"/>
       <c r="E57" s="13"/>
@@ -2465,13 +2465,13 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="45"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="37"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="23"/>
       <c r="D58" s="15"/>
       <c r="E58" s="2"/>
@@ -2479,13 +2479,13 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="45"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="37"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="23"/>
       <c r="D59" s="12"/>
       <c r="E59" s="13"/>
@@ -2493,13 +2493,13 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="45"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="37"/>
-      <c r="B60" s="39"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="22"/>
       <c r="D60" s="15"/>
       <c r="E60" s="2"/>
@@ -2507,13 +2507,13 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="45"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="46"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="37"/>
-      <c r="B61" s="39"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="23"/>
       <c r="D61" s="12"/>
       <c r="E61" s="13"/>
@@ -2521,13 +2521,13 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="45"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="46"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="37"/>
-      <c r="B62" s="39"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="22"/>
       <c r="D62" s="15"/>
       <c r="E62" s="2"/>
@@ -2535,13 +2535,13 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="45"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="46"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="37"/>
-      <c r="B63" s="39"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="22"/>
       <c r="D63" s="12"/>
       <c r="E63" s="13"/>
@@ -2549,13 +2549,13 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="45"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="46"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="37"/>
-      <c r="B64" s="39"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="22"/>
       <c r="D64" s="15"/>
       <c r="E64" s="2"/>
@@ -2563,13 +2563,13 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="45"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="46"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="37"/>
-      <c r="B65" s="39"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="22"/>
       <c r="D65" s="12"/>
       <c r="E65" s="13"/>
@@ -2577,9 +2577,9 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="48"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="49"/>
     </row>
     <row r="66" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="24"/>
